--- a/DataTables/Datas/skill.xlsx
+++ b/DataTables/Datas/skill.xlsx
@@ -43,7 +43,7 @@
     <t>coldTime</t>
   </si>
   <si>
-    <t>logicScript</t>
+    <t>btScript</t>
   </si>
   <si>
     <t>range</t>
@@ -91,7 +91,7 @@
     <t>cd</t>
   </si>
   <si>
-    <t>逻辑脚本</t>
+    <t>行为树脚本</t>
   </si>
   <si>
     <t>范围</t>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
